--- a/Squads/B1/St Truiden_Gent_squad.xlsx
+++ b/Squads/B1/St Truiden_Gent_squad.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="247">
   <si>
     <t>Rk</t>
   </si>
@@ -110,129 +110,132 @@
     <t>npxG p90</t>
   </si>
   <si>
-    <t>341</t>
-  </si>
-  <si>
-    <t>346</t>
-  </si>
-  <si>
-    <t>362</t>
+    <t>345</t>
   </si>
   <si>
     <t>40</t>
   </si>
   <si>
-    <t>254</t>
-  </si>
-  <si>
-    <t>322</t>
+    <t>351</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>367</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>242</t>
   </si>
   <si>
     <t>370</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t>285</t>
-  </si>
-  <si>
-    <t>327</t>
-  </si>
-  <si>
-    <t>347</t>
-  </si>
-  <si>
-    <t>367</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>227</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>365</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -245,34 +248,49 @@
     <t>125</t>
   </si>
   <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>277</t>
-  </si>
-  <si>
-    <t>308</t>
-  </si>
-  <si>
-    <t>316</t>
+    <t>132</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>348</t>
   </si>
   <si>
     <t>Rein Van Helden</t>
   </si>
   <si>
+    <t>Adriano Bertaccini</t>
+  </si>
+  <si>
     <t>Robert-Jan Vanwesemael</t>
   </si>
   <si>
+    <t>Atsuki Ito</t>
+  </si>
+  <si>
+    <t>Stefan Mitrović</t>
+  </si>
+  <si>
+    <t>Jordan Torunarigha</t>
+  </si>
+  <si>
     <t>Tsuyoshi Watanabe</t>
   </si>
   <si>
-    <t>Adriano Bertaccini</t>
+    <t>Bilal Brahimi</t>
+  </si>
+  <si>
+    <t>Jo Coppens</t>
   </si>
   <si>
     <t>Louis Patris</t>
@@ -305,19 +323,13 @@
     <t>Omri Gandelman</t>
   </si>
   <si>
-    <t>Atsuki Ito</t>
-  </si>
-  <si>
     <t>Sven Kums</t>
   </si>
   <si>
-    <t>Stefan Mitrović</t>
-  </si>
-  <si>
     <t>Matisse Samoise</t>
   </si>
   <si>
-    <t>Jordan Torunarigha</t>
+    <t>Franck Surdez</t>
   </si>
   <si>
     <t>Hélio Varela</t>
@@ -338,12 +350,6 @@
     <t>Zineddine Belaid</t>
   </si>
   <si>
-    <t>Bilal Brahimi</t>
-  </si>
-  <si>
-    <t>Jo Coppens</t>
-  </si>
-  <si>
     <t>Isaías Delpupo</t>
   </si>
   <si>
@@ -413,7 +419,7 @@
     <t>Momodou Sonko</t>
   </si>
   <si>
-    <t>Franck Surdez</t>
+    <t>Zalán Vancsa</t>
   </si>
   <si>
     <t>be BEL</t>
@@ -422,6 +428,15 @@
     <t>jp JPN</t>
   </si>
   <si>
+    <t>rs SRB</t>
+  </si>
+  <si>
+    <t>de GER</t>
+  </si>
+  <si>
+    <t>dz ALG</t>
+  </si>
+  <si>
     <t>us USA</t>
   </si>
   <si>
@@ -437,10 +452,7 @@
     <t>il ISR</t>
   </si>
   <si>
-    <t>rs SRB</t>
-  </si>
-  <si>
-    <t>de GER</t>
+    <t>ch SUI</t>
   </si>
   <si>
     <t>cv CPV</t>
@@ -452,9 +464,6 @@
     <t>gh GHA</t>
   </si>
   <si>
-    <t>dz ALG</t>
-  </si>
-  <si>
     <t>ar ARG</t>
   </si>
   <si>
@@ -482,16 +491,22 @@
     <t>se SWE</t>
   </si>
   <si>
-    <t>ch SUI</t>
+    <t>hu HUN</t>
   </si>
   <si>
     <t>DF</t>
   </si>
   <si>
+    <t>FW,MF</t>
+  </si>
+  <si>
     <t>DF,MF</t>
   </si>
   <si>
-    <t>FW,MF</t>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>GK</t>
   </si>
   <si>
     <t>MF,DF</t>
@@ -500,180 +515,186 @@
     <t>FW</t>
   </si>
   <si>
-    <t>MF</t>
+    <t>FW,DF</t>
   </si>
   <si>
     <t>MF,FW</t>
   </si>
   <si>
-    <t>GK</t>
-  </si>
-  <si>
     <t>St Truiden</t>
   </si>
   <si>
     <t>Gent</t>
   </si>
   <si>
-    <t>22-063</t>
-  </si>
-  <si>
-    <t>22-183</t>
-  </si>
-  <si>
-    <t>27-233</t>
-  </si>
-  <si>
-    <t>24-043</t>
-  </si>
-  <si>
-    <t>23-110</t>
-  </si>
-  <si>
-    <t>33-072</t>
-  </si>
-  <si>
-    <t>22-104</t>
-  </si>
-  <si>
-    <t>23-182</t>
-  </si>
-  <si>
-    <t>22-120</t>
-  </si>
-  <si>
-    <t>20-217</t>
-  </si>
-  <si>
-    <t>20-056</t>
-  </si>
-  <si>
-    <t>24-297</t>
-  </si>
-  <si>
-    <t>19-235</t>
-  </si>
-  <si>
-    <t>24-132</t>
-  </si>
-  <si>
-    <t>26-045</t>
-  </si>
-  <si>
-    <t>36-212</t>
-  </si>
-  <si>
-    <t>34-126</t>
-  </si>
-  <si>
-    <t>22-309</t>
-  </si>
-  <si>
-    <t>27-049</t>
-  </si>
-  <si>
-    <t>22-145</t>
-  </si>
-  <si>
-    <t>24-102</t>
-  </si>
-  <si>
-    <t>18-259</t>
-  </si>
-  <si>
-    <t>27-005</t>
-  </si>
-  <si>
-    <t>22-288</t>
-  </si>
-  <si>
-    <t>25-189</t>
-  </si>
-  <si>
-    <t>24-195</t>
-  </si>
-  <si>
-    <t>33-279</t>
-  </si>
-  <si>
-    <t>21-178</t>
-  </si>
-  <si>
-    <t>20-265</t>
-  </si>
-  <si>
-    <t>22-203</t>
-  </si>
-  <si>
-    <t>21-266</t>
-  </si>
-  <si>
-    <t>22-222</t>
-  </si>
-  <si>
-    <t>32-138</t>
-  </si>
-  <si>
-    <t>26-232</t>
-  </si>
-  <si>
-    <t>29-258</t>
-  </si>
-  <si>
-    <t>23-246</t>
-  </si>
-  <si>
-    <t>18-097</t>
-  </si>
-  <si>
-    <t>23-098</t>
-  </si>
-  <si>
-    <t>19-047</t>
-  </si>
-  <si>
-    <t>27-306</t>
-  </si>
-  <si>
-    <t>20-098</t>
-  </si>
-  <si>
-    <t>29-185</t>
-  </si>
-  <si>
-    <t>21-270</t>
-  </si>
-  <si>
-    <t>29-043</t>
-  </si>
-  <si>
-    <t>22-240</t>
-  </si>
-  <si>
-    <t>25-101</t>
-  </si>
-  <si>
-    <t>26-318</t>
-  </si>
-  <si>
-    <t>30-232</t>
-  </si>
-  <si>
-    <t>19-238</t>
-  </si>
-  <si>
-    <t>22-143</t>
+    <t>22-071</t>
+  </si>
+  <si>
+    <t>24-051</t>
+  </si>
+  <si>
+    <t>22-191</t>
+  </si>
+  <si>
+    <t>26-053</t>
+  </si>
+  <si>
+    <t>34-134</t>
+  </si>
+  <si>
+    <t>27-057</t>
+  </si>
+  <si>
+    <t>27-241</t>
+  </si>
+  <si>
+    <t>24-203</t>
+  </si>
+  <si>
+    <t>33-287</t>
+  </si>
+  <si>
+    <t>23-118</t>
+  </si>
+  <si>
+    <t>33-080</t>
+  </si>
+  <si>
+    <t>22-112</t>
+  </si>
+  <si>
+    <t>23-190</t>
+  </si>
+  <si>
+    <t>22-128</t>
+  </si>
+  <si>
+    <t>20-225</t>
+  </si>
+  <si>
+    <t>20-064</t>
+  </si>
+  <si>
+    <t>24-305</t>
+  </si>
+  <si>
+    <t>19-243</t>
+  </si>
+  <si>
+    <t>24-140</t>
+  </si>
+  <si>
+    <t>36-220</t>
+  </si>
+  <si>
+    <t>22-317</t>
+  </si>
+  <si>
+    <t>22-151</t>
+  </si>
+  <si>
+    <t>22-153</t>
+  </si>
+  <si>
+    <t>24-110</t>
+  </si>
+  <si>
+    <t>18-267</t>
+  </si>
+  <si>
+    <t>27-013</t>
+  </si>
+  <si>
+    <t>22-296</t>
+  </si>
+  <si>
+    <t>25-197</t>
+  </si>
+  <si>
+    <t>21-186</t>
+  </si>
+  <si>
+    <t>20-273</t>
+  </si>
+  <si>
+    <t>22-211</t>
+  </si>
+  <si>
+    <t>21-274</t>
+  </si>
+  <si>
+    <t>22-230</t>
+  </si>
+  <si>
+    <t>32-146</t>
+  </si>
+  <si>
+    <t>26-240</t>
+  </si>
+  <si>
+    <t>29-266</t>
+  </si>
+  <si>
+    <t>23-254</t>
+  </si>
+  <si>
+    <t>18-105</t>
+  </si>
+  <si>
+    <t>23-106</t>
+  </si>
+  <si>
+    <t>19-055</t>
+  </si>
+  <si>
+    <t>27-314</t>
+  </si>
+  <si>
+    <t>20-106</t>
+  </si>
+  <si>
+    <t>29-193</t>
+  </si>
+  <si>
+    <t>21-278</t>
+  </si>
+  <si>
+    <t>29-051</t>
+  </si>
+  <si>
+    <t>22-248</t>
+  </si>
+  <si>
+    <t>25-109</t>
+  </si>
+  <si>
+    <t>26-326</t>
+  </si>
+  <si>
+    <t>30-240</t>
+  </si>
+  <si>
+    <t>19-246</t>
+  </si>
+  <si>
+    <t>19-342</t>
   </si>
   <si>
     <t>2002</t>
   </si>
   <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
     <t>1997</t>
   </si>
   <si>
-    <t>2000</t>
-  </si>
-  <si>
     <t>2001</t>
   </si>
   <si>
@@ -689,15 +710,9 @@
     <t>2005</t>
   </si>
   <si>
-    <t>1998</t>
-  </si>
-  <si>
     <t>1988</t>
   </si>
   <si>
-    <t>1990</t>
-  </si>
-  <si>
     <t>2006</t>
   </si>
   <si>
@@ -716,25 +731,28 @@
     <t>1994</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
-    <t>7</t>
+    <t>3</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
 </sst>
 </file>
@@ -889,37 +907,37 @@
         <v>32</v>
       </c>
       <c r="B2" t="n">
-        <v>341.0</v>
+        <v>345.0</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="I2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="J2" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="K2" t="n">
-        <v>719.0</v>
+        <v>801.0</v>
       </c>
       <c r="L2" t="n">
-        <v>8.0</v>
+        <v>8.9</v>
       </c>
       <c r="M2" t="n">
         <v>0.0</v>
@@ -958,7 +976,7 @@
         <v>0.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="Z2" t="n">
         <v>28.0</v>
@@ -970,16 +988,16 @@
         <v>0.0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AE2" t="n">
         <v>0.0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AG2" t="n">
         <v>0.02</v>
@@ -990,49 +1008,49 @@
         <v>33</v>
       </c>
       <c r="B3" t="n">
-        <v>346.0</v>
+        <v>40.0</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H3" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="I3" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="J3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>541.0</v>
+      </c>
+      <c r="L3" t="n">
         <v>6.0</v>
       </c>
-      <c r="K3" t="n">
-        <v>458.0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5.1</v>
-      </c>
       <c r="M3" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="N3" t="n">
         <v>0.0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q3" t="n">
         <v>0.0</v>
@@ -1047,43 +1065,43 @@
         <v>0.0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="X3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AB3" t="n">
         <v>0.5</v>
       </c>
-      <c r="Y3" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.0</v>
-      </c>
       <c r="AC3" t="n">
         <v>0.0</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.08</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="4">
@@ -1091,37 +1109,37 @@
         <v>34</v>
       </c>
       <c r="B4" t="n">
-        <v>362.0</v>
+        <v>351.0</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H4" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="I4" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J4" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="K4" t="n">
-        <v>630.0</v>
+        <v>466.0</v>
       </c>
       <c r="L4" t="n">
-        <v>7.0</v>
+        <v>5.2</v>
       </c>
       <c r="M4" t="n">
         <v>0.0</v>
@@ -1148,25 +1166,25 @@
         <v>0.0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="X4" t="n">
         <v>0.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="Z4" t="n">
-        <v>31.0</v>
+        <v>16.0</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.0</v>
+        <v>22.0</v>
       </c>
       <c r="AB4" t="n">
         <v>0.0</v>
@@ -1192,49 +1210,49 @@
         <v>35</v>
       </c>
       <c r="B5" t="n">
-        <v>40.0</v>
+        <v>148.0</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E5" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F5" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G5" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H5" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="I5" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="J5" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="K5" t="n">
-        <v>459.0</v>
+        <v>314.0</v>
       </c>
       <c r="L5" t="n">
-        <v>5.1</v>
+        <v>3.5</v>
       </c>
       <c r="M5" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="N5" t="n">
         <v>0.0</v>
       </c>
       <c r="O5" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="P5" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q5" t="n">
         <v>0.0</v>
@@ -1243,49 +1261,49 @@
         <v>0.0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T5" t="n">
         <v>0.0</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>0.2</v>
       </c>
       <c r="V5" t="n">
-        <v>2.1</v>
+        <v>0.2</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="X5" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>17.0</v>
+        <v>11.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.59</v>
+        <v>0.0</v>
       </c>
       <c r="AC5" t="n">
         <v>0.0</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.59</v>
+        <v>0.0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.59</v>
+        <v>0.0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.59</v>
+        <v>0.0</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.42</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6">
@@ -1293,67 +1311,67 @@
         <v>36</v>
       </c>
       <c r="B6" t="n">
-        <v>254.0</v>
+        <v>219.0</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E6" t="s">
         <v>160</v>
       </c>
       <c r="F6" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G6" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H6" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="I6" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="J6" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>668.0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S6" t="n">
         <v>2.0</v>
       </c>
-      <c r="K6" t="n">
-        <v>165.0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.0</v>
-      </c>
       <c r="T6" t="n">
         <v>0.0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="W6" t="n">
         <v>0.0</v>
@@ -1362,13 +1380,13 @@
         <v>0.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="Z6" t="n">
-        <v>3.0</v>
+        <v>32.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>17.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB6" t="n">
         <v>0.0</v>
@@ -1386,7 +1404,7 @@
         <v>0.0</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="7">
@@ -1394,49 +1412,49 @@
         <v>37</v>
       </c>
       <c r="B7" t="n">
-        <v>322.0</v>
+        <v>331.0</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="I7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="J7" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="K7" t="n">
-        <v>561.0</v>
+        <v>327.0</v>
       </c>
       <c r="L7" t="n">
-        <v>6.2</v>
+        <v>3.6</v>
       </c>
       <c r="M7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O7" t="n">
         <v>1.0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q7" t="n">
         <v>0.0</v>
@@ -1445,49 +1463,49 @@
         <v>0.0</v>
       </c>
       <c r="S7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T7" t="n">
         <v>0.0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="V7" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="W7" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="X7" t="n">
-        <v>0.7</v>
+        <v>0.0</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="Z7" t="n">
-        <v>25.0</v>
+        <v>10.0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.16</v>
+        <v>0.0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.0</v>
+        <v>0.28</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.16</v>
+        <v>0.28</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.16</v>
+        <v>0.0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.16</v>
+        <v>0.28</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.05</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
@@ -1495,100 +1513,100 @@
         <v>38</v>
       </c>
       <c r="B8" t="n">
-        <v>370.0</v>
+        <v>367.0</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F8" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G8" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H8" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="I8" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="J8" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="K8" t="n">
-        <v>683.0</v>
+        <v>810.0</v>
       </c>
       <c r="L8" t="n">
-        <v>7.6</v>
+        <v>9.0</v>
       </c>
       <c r="M8" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="N8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S8" t="n">
         <v>2.0</v>
       </c>
-      <c r="O8" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.0</v>
-      </c>
       <c r="T8" t="n">
         <v>0.0</v>
       </c>
       <c r="U8" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="V8" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="W8" t="n">
-        <v>1.8</v>
+        <v>0.0</v>
       </c>
       <c r="X8" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="Y8" t="n">
-        <v>17.0</v>
+        <v>7.0</v>
       </c>
       <c r="Z8" t="n">
-        <v>11.0</v>
+        <v>36.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>49.0</v>
+        <v>2.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.26</v>
+        <v>0.0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.66</v>
+        <v>0.0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.66</v>
+        <v>0.0</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="9">
@@ -1596,49 +1614,49 @@
         <v>39</v>
       </c>
       <c r="B9" t="n">
-        <v>18.0</v>
+        <v>49.0</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E9" t="s">
         <v>161</v>
       </c>
       <c r="F9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G9" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H9" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I9" t="s">
-        <v>73</v>
+        <v>243</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="K9" t="n">
-        <v>8.0</v>
+        <v>263.0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1</v>
+        <v>2.9</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q9" t="n">
         <v>0.0</v>
@@ -1653,43 +1671,43 @@
         <v>0.0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0</v>
+        <v>1.1</v>
       </c>
       <c r="X9" t="n">
-        <v>0.0</v>
+        <v>1.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.0</v>
+        <v>21.0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.0</v>
+        <v>0.34</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.0</v>
+        <v>0.34</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.0</v>
+        <v>0.68</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.0</v>
+        <v>0.34</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.0</v>
+        <v>0.68</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.0</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="10">
@@ -1697,46 +1715,46 @@
         <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>50.0</v>
+        <v>65.0</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E10" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="F10" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G10" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H10" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="I10" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="J10" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="K10" t="n">
-        <v>620.0</v>
+        <v>270.0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.9</v>
+        <v>3.0</v>
       </c>
       <c r="M10" t="n">
         <v>0.0</v>
       </c>
       <c r="N10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P10" t="n">
         <v>0.0</v>
@@ -1754,43 +1772,43 @@
         <v>0.0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="V10" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.9</v>
+        <v>0.0</v>
       </c>
       <c r="X10" t="n">
-        <v>1.2</v>
+        <v>0.0</v>
       </c>
       <c r="Y10" t="n">
-        <v>37.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z10" t="n">
-        <v>38.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA10" t="n">
-        <v>51.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB10" t="n">
         <v>0.0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.15</v>
+        <v>0.0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.15</v>
+        <v>0.0</v>
       </c>
       <c r="AE10" t="n">
         <v>0.0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.15</v>
+        <v>0.0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.04</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
@@ -1798,100 +1816,100 @@
         <v>41</v>
       </c>
       <c r="B11" t="n">
-        <v>78.0</v>
+        <v>256.0</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E11" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G11" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H11" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="I11" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="J11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>255.0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y11" t="n">
         <v>2.0</v>
       </c>
-      <c r="K11" t="n">
-        <v>169.0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>3.0</v>
-      </c>
       <c r="Z11" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="AA11" t="n">
-        <v>10.0</v>
+        <v>21.0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.53</v>
+        <v>0.0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.53</v>
+        <v>0.0</v>
       </c>
       <c r="AD11" t="n">
-        <v>1.07</v>
+        <v>0.0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.53</v>
+        <v>0.0</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.07</v>
+        <v>0.0</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="12">
@@ -1899,46 +1917,46 @@
         <v>42</v>
       </c>
       <c r="B12" t="n">
-        <v>81.0</v>
+        <v>326.0</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F12" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G12" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H12" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="I12" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="J12" t="n">
         <v>7.0</v>
       </c>
       <c r="K12" t="n">
-        <v>627.0</v>
+        <v>651.0</v>
       </c>
       <c r="L12" t="n">
-        <v>7.0</v>
+        <v>7.2</v>
       </c>
       <c r="M12" t="n">
         <v>1.0</v>
       </c>
       <c r="N12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O12" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="P12" t="n">
         <v>1.0</v>
@@ -1956,43 +1974,43 @@
         <v>0.0</v>
       </c>
       <c r="U12" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="V12" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="W12" t="n">
         <v>0.4</v>
       </c>
       <c r="X12" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z12" t="n">
-        <v>51.0</v>
+        <v>27.0</v>
       </c>
       <c r="AA12" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB12" t="n">
         <v>0.14</v>
       </c>
       <c r="AC12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD12" t="n">
         <v>0.14</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0.29</v>
       </c>
       <c r="AE12" t="n">
         <v>0.14</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.29</v>
+        <v>0.14</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="13">
@@ -2000,49 +2018,49 @@
         <v>43</v>
       </c>
       <c r="B13" t="n">
-        <v>104.0</v>
+        <v>375.0</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E13" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F13" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G13" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I13" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J13" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="K13" t="n">
-        <v>428.0</v>
+        <v>751.0</v>
       </c>
       <c r="L13" t="n">
-        <v>4.8</v>
+        <v>8.3</v>
       </c>
       <c r="M13" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q13" t="n">
         <v>0.0</v>
@@ -2057,43 +2075,43 @@
         <v>0.0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="V13" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="W13" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="X13" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
       <c r="Z13" t="n">
         <v>13.0</v>
       </c>
       <c r="AA13" t="n">
-        <v>43.0</v>
+        <v>52.0</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.21</v>
+        <v>0.36</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.0</v>
+        <v>0.24</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.21</v>
+        <v>0.6</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.21</v>
+        <v>0.36</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.21</v>
+        <v>0.6</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.07</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="14">
@@ -2101,100 +2119,100 @@
         <v>44</v>
       </c>
       <c r="B14" t="n">
-        <v>105.0</v>
+        <v>18.0</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E14" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F14" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G14" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H14" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I14" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="J14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z14" t="n">
         <v>2.0</v>
       </c>
-      <c r="K14" t="n">
-        <v>164.0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>6.0</v>
-      </c>
       <c r="AA14" t="n">
-        <v>17.0</v>
+        <v>5.0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.55</v>
+        <v>0.0</v>
       </c>
       <c r="AC14" t="n">
         <v>0.0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.55</v>
+        <v>0.0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.55</v>
+        <v>0.0</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.55</v>
+        <v>0.0</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.6</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="15">
@@ -2202,49 +2220,49 @@
         <v>45</v>
       </c>
       <c r="B15" t="n">
-        <v>124.0</v>
+        <v>50.0</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F15" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G15" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H15" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I15" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="J15" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="K15" t="n">
-        <v>455.0</v>
+        <v>775.0</v>
       </c>
       <c r="L15" t="n">
-        <v>5.1</v>
+        <v>8.6</v>
       </c>
       <c r="M15" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="N15" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="O15" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="P15" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q15" t="n">
         <v>0.0</v>
@@ -2259,43 +2277,43 @@
         <v>0.0</v>
       </c>
       <c r="U15" t="n">
-        <v>3.3</v>
+        <v>0.3</v>
       </c>
       <c r="V15" t="n">
-        <v>3.3</v>
+        <v>0.3</v>
       </c>
       <c r="W15" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="X15" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.0</v>
+        <v>42.0</v>
       </c>
       <c r="Z15" t="n">
-        <v>13.0</v>
+        <v>44.0</v>
       </c>
       <c r="AA15" t="n">
-        <v>16.0</v>
+        <v>60.0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.59</v>
+        <v>0.0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.79</v>
+        <v>0.23</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.59</v>
+        <v>0.0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.79</v>
+        <v>0.23</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.64</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="16">
@@ -2303,100 +2321,100 @@
         <v>46</v>
       </c>
       <c r="B16" t="n">
-        <v>147.0</v>
+        <v>78.0</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E16" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G16" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H16" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="I16" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="J16" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K16" t="n">
-        <v>134.0</v>
+        <v>251.0</v>
       </c>
       <c r="L16" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="X16" t="n">
         <v>1.5</v>
       </c>
-      <c r="M16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0.5</v>
-      </c>
       <c r="Y16" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="Z16" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="AA16" t="n">
-        <v>9.0</v>
+        <v>18.0</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.0</v>
+        <v>0.72</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.0</v>
+        <v>0.36</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.0</v>
+        <v>1.08</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.0</v>
+        <v>0.72</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.0</v>
+        <v>1.08</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.01</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="17">
@@ -2404,46 +2422,46 @@
         <v>47</v>
       </c>
       <c r="B17" t="n">
-        <v>177.0</v>
+        <v>81.0</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F17" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G17" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H17" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I17" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="J17" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="K17" t="n">
-        <v>318.0</v>
+        <v>800.0</v>
       </c>
       <c r="L17" t="n">
-        <v>3.5</v>
+        <v>8.9</v>
       </c>
       <c r="M17" t="n">
         <v>1.0</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="P17" t="n">
         <v>1.0</v>
@@ -2461,43 +2479,43 @@
         <v>0.0</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="V17" t="n">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="W17" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="X17" t="n">
         <v>1.2</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z17" t="n">
-        <v>28.0</v>
+        <v>58.0</v>
       </c>
       <c r="AA17" t="n">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.28</v>
+        <v>0.11</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.0</v>
+        <v>0.11</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.28</v>
+        <v>0.23</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.28</v>
+        <v>0.11</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.28</v>
+        <v>0.23</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="18">
@@ -2505,49 +2523,49 @@
         <v>48</v>
       </c>
       <c r="B18" t="n">
-        <v>217.0</v>
+        <v>104.0</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E18" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H18" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I18" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="J18" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K18" t="n">
-        <v>495.0</v>
+        <v>581.0</v>
       </c>
       <c r="L18" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="N18" t="n">
         <v>0.0</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="P18" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q18" t="n">
         <v>0.0</v>
@@ -2562,43 +2580,43 @@
         <v>0.0</v>
       </c>
       <c r="U18" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="V18" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="W18" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="X18" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="Z18" t="n">
-        <v>28.0</v>
+        <v>21.0</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.0</v>
+        <v>59.0</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.0</v>
+        <v>0.46</v>
       </c>
       <c r="AC18" t="n">
         <v>0.0</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.0</v>
+        <v>0.46</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.0</v>
+        <v>0.46</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.0</v>
+        <v>0.46</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19">
@@ -2606,49 +2624,49 @@
         <v>49</v>
       </c>
       <c r="B19" t="n">
-        <v>285.0</v>
+        <v>105.0</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D19" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E19" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="F19" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G19" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H19" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="I19" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="J19" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K19" t="n">
-        <v>180.0</v>
+        <v>164.0</v>
       </c>
       <c r="L19" t="n">
-        <v>2.0</v>
+        <v>1.8</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N19" t="n">
         <v>0.0</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q19" t="n">
         <v>0.0</v>
@@ -2663,43 +2681,43 @@
         <v>0.0</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0</v>
+        <v>1.1</v>
       </c>
       <c r="V19" t="n">
-        <v>0.0</v>
+        <v>1.1</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="X19" t="n">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="Z19" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA19" t="n">
         <v>17.0</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.0</v>
+        <v>0.55</v>
       </c>
       <c r="AC19" t="n">
         <v>0.0</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.0</v>
+        <v>0.55</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.0</v>
+        <v>0.55</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.0</v>
+        <v>0.55</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="20">
@@ -2707,49 +2725,49 @@
         <v>50</v>
       </c>
       <c r="B20" t="n">
-        <v>327.0</v>
+        <v>124.0</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E20" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F20" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G20" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H20" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="I20" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="J20" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>455.0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="M20" t="n">
         <v>3.0</v>
       </c>
-      <c r="K20" t="n">
-        <v>237.0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.0</v>
-      </c>
       <c r="N20" t="n">
         <v>1.0</v>
       </c>
       <c r="O20" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q20" t="n">
         <v>0.0</v>
@@ -2764,43 +2782,43 @@
         <v>0.0</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0</v>
+        <v>3.3</v>
       </c>
       <c r="V20" t="n">
-        <v>0.0</v>
+        <v>3.3</v>
       </c>
       <c r="W20" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="X20" t="n">
-        <v>0.0</v>
+        <v>3.8</v>
       </c>
       <c r="Y20" t="n">
         <v>3.0</v>
       </c>
       <c r="Z20" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.0</v>
+        <v>0.59</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.38</v>
+        <v>0.79</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.0</v>
+        <v>0.59</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.38</v>
+        <v>0.79</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.0</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="21">
@@ -2808,49 +2826,49 @@
         <v>51</v>
       </c>
       <c r="B21" t="n">
-        <v>347.0</v>
+        <v>178.0</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D21" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E21" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F21" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G21" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H21" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="I21" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="K21" t="n">
-        <v>34.0</v>
+        <v>318.0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4</v>
+        <v>3.5</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N21" t="n">
         <v>0.0</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q21" t="n">
         <v>0.0</v>
@@ -2865,43 +2883,43 @@
         <v>0.0</v>
       </c>
       <c r="U21" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="V21" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="W21" t="n">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="X21" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.0</v>
+        <v>28.0</v>
       </c>
       <c r="AA21" t="n">
-        <v>5.0</v>
+        <v>13.0</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.0</v>
+        <v>0.28</v>
       </c>
       <c r="AC21" t="n">
         <v>0.0</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.0</v>
+        <v>0.28</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.0</v>
+        <v>0.28</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.0</v>
+        <v>0.28</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.73</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="22">
@@ -2909,49 +2927,49 @@
         <v>52</v>
       </c>
       <c r="B22" t="n">
-        <v>367.0</v>
+        <v>288.0</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E22" t="s">
         <v>162</v>
       </c>
       <c r="F22" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G22" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H22" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="I22" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="J22" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="K22" t="n">
-        <v>231.0</v>
+        <v>207.0</v>
       </c>
       <c r="L22" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="M22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N22" t="n">
         <v>0.0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q22" t="n">
         <v>0.0</v>
@@ -2966,43 +2984,43 @@
         <v>0.0</v>
       </c>
       <c r="U22" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="V22" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="W22" t="n">
         <v>0.1</v>
       </c>
       <c r="X22" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z22" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="AA22" t="n">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.39</v>
+        <v>0.0</v>
       </c>
       <c r="AC22" t="n">
         <v>0.0</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.39</v>
+        <v>0.0</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.39</v>
+        <v>0.0</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.39</v>
+        <v>0.0</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.16</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
@@ -3010,49 +3028,49 @@
         <v>53</v>
       </c>
       <c r="B23" t="n">
-        <v>12.0</v>
+        <v>319.0</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="E23" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F23" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G23" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H23" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="I23" t="s">
-        <v>73</v>
+        <v>239</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="K23" t="n">
-        <v>12.0</v>
+        <v>615.0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1</v>
+        <v>6.8</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="P23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q23" t="n">
         <v>0.0</v>
@@ -3061,49 +3079,49 @@
         <v>0.0</v>
       </c>
       <c r="S23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T23" t="n">
         <v>0.0</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0</v>
+        <v>1.3</v>
       </c>
       <c r="V23" t="n">
-        <v>0.0</v>
+        <v>1.3</v>
       </c>
       <c r="W23" t="n">
-        <v>0.0</v>
+        <v>2.2</v>
       </c>
       <c r="X23" t="n">
-        <v>0.0</v>
+        <v>3.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.0</v>
+        <v>61.0</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.0</v>
+        <v>0.15</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.0</v>
+        <v>0.73</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.0</v>
+        <v>0.88</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.0</v>
+        <v>0.15</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.0</v>
+        <v>0.88</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="24">
@@ -3111,100 +3129,100 @@
         <v>54</v>
       </c>
       <c r="B24" t="n">
-        <v>15.0</v>
+        <v>352.0</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D24" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E24" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F24" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G24" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H24" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="I24" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="J24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z24" t="n">
         <v>2.0</v>
       </c>
-      <c r="K24" t="n">
-        <v>195.0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="Z24" t="n">
+      <c r="AA24" t="n">
         <v>6.0</v>
       </c>
-      <c r="AA24" t="n">
-        <v>13.0</v>
-      </c>
       <c r="AB24" t="n">
         <v>0.0</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.0</v>
+        <v>1.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.0</v>
+        <v>1.5</v>
       </c>
       <c r="AE24" t="n">
         <v>0.0</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.0</v>
+        <v>1.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.02</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="25">
@@ -3212,49 +3230,49 @@
         <v>55</v>
       </c>
       <c r="B25" t="n">
-        <v>32.0</v>
+        <v>372.0</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E25" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F25" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G25" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H25" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I25" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="K25" t="n">
-        <v>71.0</v>
+        <v>231.0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N25" t="n">
         <v>0.0</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q25" t="n">
         <v>0.0</v>
@@ -3263,7 +3281,7 @@
         <v>0.0</v>
       </c>
       <c r="S25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T25" t="n">
         <v>0.0</v>
@@ -3275,37 +3293,37 @@
         <v>0.4</v>
       </c>
       <c r="W25" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="X25" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="AA25" t="n">
-        <v>7.0</v>
+        <v>18.0</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.0</v>
+        <v>0.39</v>
       </c>
       <c r="AC25" t="n">
         <v>0.0</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.0</v>
+        <v>0.39</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.0</v>
+        <v>0.39</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.0</v>
+        <v>0.39</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.52</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="26">
@@ -3313,37 +3331,37 @@
         <v>56</v>
       </c>
       <c r="B26" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D26" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E26" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F26" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G26" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H26" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="I26" t="s">
-        <v>237</v>
+        <v>74</v>
       </c>
       <c r="J26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K26" t="n">
-        <v>70.0</v>
+        <v>12.0</v>
       </c>
       <c r="L26" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="M26" t="n">
         <v>0.0</v>
@@ -3385,7 +3403,7 @@
         <v>0.0</v>
       </c>
       <c r="Z26" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA26" t="n">
         <v>0.0</v>
@@ -3414,49 +3432,49 @@
         <v>57</v>
       </c>
       <c r="B27" t="n">
-        <v>49.0</v>
+        <v>15.0</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D27" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F27" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G27" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H27" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="I27" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="J27" t="n">
         <v>2.0</v>
       </c>
       <c r="K27" t="n">
-        <v>173.0</v>
+        <v>195.0</v>
       </c>
       <c r="L27" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="M27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N27" t="n">
         <v>0.0</v>
       </c>
       <c r="O27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q27" t="n">
         <v>0.0</v>
@@ -3471,43 +3489,43 @@
         <v>0.0</v>
       </c>
       <c r="U27" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="V27" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="W27" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="X27" t="n">
-        <v>0.6</v>
+        <v>0.0</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="Z27" t="n">
-        <v>17.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA27" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.52</v>
+        <v>0.0</v>
       </c>
       <c r="AC27" t="n">
         <v>0.0</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.52</v>
+        <v>0.0</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.52</v>
+        <v>0.0</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.52</v>
+        <v>0.0</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="28">
@@ -3515,37 +3533,37 @@
         <v>58</v>
       </c>
       <c r="B28" t="n">
-        <v>65.0</v>
+        <v>32.0</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="E28" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F28" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G28" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H28" t="s">
         <v>227</v>
       </c>
       <c r="I28" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J28" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="K28" t="n">
-        <v>270.0</v>
+        <v>93.0</v>
       </c>
       <c r="L28" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M28" t="n">
         <v>0.0</v>
@@ -3572,16 +3590,16 @@
         <v>0.0</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="V28" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="W28" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="X28" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="Y28" t="n">
         <v>0.0</v>
@@ -3590,7 +3608,7 @@
         <v>0.0</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="AB28" t="n">
         <v>0.0</v>
@@ -3608,7 +3626,7 @@
         <v>0.0</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="29">
@@ -3616,37 +3634,37 @@
         <v>59</v>
       </c>
       <c r="B29" t="n">
-        <v>82.0</v>
+        <v>36.0</v>
       </c>
       <c r="C29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F29" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G29" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H29" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I29" t="s">
-        <v>73</v>
+        <v>246</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K29" t="n">
-        <v>6.0</v>
+        <v>70.0</v>
       </c>
       <c r="L29" t="n">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="M29" t="n">
         <v>0.0</v>
@@ -3670,7 +3688,7 @@
         <v>0.0</v>
       </c>
       <c r="T29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U29" t="n">
         <v>0.0</v>
@@ -3688,7 +3706,7 @@
         <v>0.0</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="AA29" t="n">
         <v>0.0</v>
@@ -3717,37 +3735,37 @@
         <v>60</v>
       </c>
       <c r="B30" t="n">
-        <v>91.0</v>
+        <v>82.0</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D30" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="E30" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F30" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G30" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H30" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="I30" t="s">
-        <v>237</v>
+        <v>74</v>
       </c>
       <c r="J30" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="K30" t="n">
-        <v>147.0</v>
+        <v>6.0</v>
       </c>
       <c r="L30" t="n">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="M30" t="n">
         <v>0.0</v>
@@ -3771,7 +3789,7 @@
         <v>0.0</v>
       </c>
       <c r="T30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U30" t="n">
         <v>0.0</v>
@@ -3789,10 +3807,10 @@
         <v>0.0</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB30" t="n">
         <v>0.0</v>
@@ -3818,37 +3836,37 @@
         <v>61</v>
       </c>
       <c r="B31" t="n">
-        <v>96.0</v>
+        <v>91.0</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D31" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E31" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F31" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G31" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H31" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="I31" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="J31" t="n">
         <v>2.0</v>
       </c>
       <c r="K31" t="n">
-        <v>171.0</v>
+        <v>147.0</v>
       </c>
       <c r="L31" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="M31" t="n">
         <v>0.0</v>
@@ -3875,25 +3893,25 @@
         <v>0.0</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="V31" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="W31" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="X31" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z31" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA31" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB31" t="n">
         <v>0.0</v>
@@ -3911,7 +3929,7 @@
         <v>0.0</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.03</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32">
@@ -3919,37 +3937,37 @@
         <v>62</v>
       </c>
       <c r="B32" t="n">
-        <v>106.0</v>
+        <v>96.0</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E32" t="s">
         <v>161</v>
       </c>
       <c r="F32" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G32" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H32" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="I32" t="s">
-        <v>73</v>
+        <v>245</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K32" t="n">
-        <v>26.0</v>
+        <v>171.0</v>
       </c>
       <c r="L32" t="n">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="M32" t="n">
         <v>0.0</v>
@@ -3976,25 +3994,25 @@
         <v>0.0</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="V32" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="W32" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="X32" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="AA32" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="AB32" t="n">
         <v>0.0</v>
@@ -4012,7 +4030,7 @@
         <v>0.0</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="33">
@@ -4020,49 +4038,49 @@
         <v>63</v>
       </c>
       <c r="B33" t="n">
-        <v>121.0</v>
+        <v>106.0</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D33" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="E33" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F33" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G33" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H33" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="I33" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="J33" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="K33" t="n">
-        <v>513.0</v>
+        <v>34.0</v>
       </c>
       <c r="L33" t="n">
-        <v>5.7</v>
+        <v>0.4</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N33" t="n">
         <v>0.0</v>
       </c>
       <c r="O33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q33" t="n">
         <v>0.0</v>
@@ -4077,43 +4095,43 @@
         <v>0.0</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="V33" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="W33" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="X33" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="Y33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA33" t="n">
         <v>3.0</v>
       </c>
-      <c r="Z33" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>4.0</v>
-      </c>
       <c r="AB33" t="n">
-        <v>0.0</v>
+        <v>2.65</v>
       </c>
       <c r="AC33" t="n">
         <v>0.0</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.0</v>
+        <v>2.65</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.0</v>
+        <v>2.65</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.0</v>
+        <v>2.65</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.02</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="34">
@@ -4121,37 +4139,37 @@
         <v>64</v>
       </c>
       <c r="B34" t="n">
-        <v>127.0</v>
+        <v>121.0</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D34" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E34" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F34" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G34" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H34" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="I34" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="J34" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="K34" t="n">
-        <v>720.0</v>
+        <v>603.0</v>
       </c>
       <c r="L34" t="n">
-        <v>8.0</v>
+        <v>6.7</v>
       </c>
       <c r="M34" t="n">
         <v>0.0</v>
@@ -4178,25 +4196,25 @@
         <v>0.0</v>
       </c>
       <c r="U34" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="V34" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="W34" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="X34" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="Z34" t="n">
-        <v>29.0</v>
+        <v>38.0</v>
       </c>
       <c r="AA34" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AB34" t="n">
         <v>0.0</v>
@@ -4214,7 +4232,7 @@
         <v>0.0</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="35">
@@ -4222,49 +4240,49 @@
         <v>65</v>
       </c>
       <c r="B35" t="n">
-        <v>148.0</v>
+        <v>128.0</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D35" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E35" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F35" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G35" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H35" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="I35" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J35" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="K35" t="n">
-        <v>436.0</v>
+        <v>810.0</v>
       </c>
       <c r="L35" t="n">
-        <v>4.8</v>
+        <v>9.0</v>
       </c>
       <c r="M35" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N35" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="O35" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="P35" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q35" t="n">
         <v>0.0</v>
@@ -4279,43 +4297,43 @@
         <v>0.0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="V35" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="W35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X35" t="n">
         <v>0.9</v>
       </c>
-      <c r="X35" t="n">
-        <v>1.3</v>
-      </c>
       <c r="Y35" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="Z35" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="AA35" t="n">
-        <v>30.0</v>
+        <v>4.0</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.21</v>
+        <v>0.0</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.41</v>
+        <v>0.0</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.62</v>
+        <v>0.0</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.21</v>
+        <v>0.0</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.62</v>
+        <v>0.0</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="36">
@@ -4323,100 +4341,100 @@
         <v>66</v>
       </c>
       <c r="B36" t="n">
-        <v>151.0</v>
+        <v>149.0</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D36" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E36" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F36" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G36" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H36" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I36" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="K36" t="n">
-        <v>77.0</v>
+        <v>481.0</v>
       </c>
       <c r="L36" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W36" t="n">
         <v>0.9</v>
       </c>
-      <c r="M36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0.0</v>
-      </c>
       <c r="X36" t="n">
-        <v>0.0</v>
+        <v>1.4</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z36" t="n">
-        <v>2.0</v>
+        <v>33.0</v>
       </c>
       <c r="AA36" t="n">
-        <v>7.0</v>
+        <v>31.0</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.0</v>
+        <v>0.19</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.0</v>
+        <v>0.37</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.0</v>
+        <v>0.56</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.0</v>
+        <v>0.19</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.0</v>
+        <v>0.56</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.0</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="37">
@@ -4424,37 +4442,37 @@
         <v>67</v>
       </c>
       <c r="B37" t="n">
-        <v>169.0</v>
+        <v>152.0</v>
       </c>
       <c r="C37" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D37" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E37" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F37" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G37" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H37" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="I37" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="J37" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="K37" t="n">
-        <v>450.0</v>
+        <v>77.0</v>
       </c>
       <c r="L37" t="n">
-        <v>5.0</v>
+        <v>0.9</v>
       </c>
       <c r="M37" t="n">
         <v>0.0</v>
@@ -4496,10 +4514,10 @@
         <v>0.0</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="AB37" t="n">
         <v>0.0</v>
@@ -4525,37 +4543,37 @@
         <v>68</v>
       </c>
       <c r="B38" t="n">
-        <v>182.0</v>
+        <v>170.0</v>
       </c>
       <c r="C38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E38" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F38" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G38" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I38" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="K38" t="n">
-        <v>36.0</v>
+        <v>540.0</v>
       </c>
       <c r="L38" t="n">
-        <v>0.4</v>
+        <v>6.0</v>
       </c>
       <c r="M38" t="n">
         <v>0.0</v>
@@ -4588,19 +4606,19 @@
         <v>0.0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="X38" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="Y38" t="n">
         <v>0.0</v>
       </c>
       <c r="Z38" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA38" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB38" t="n">
         <v>0.0</v>
@@ -4626,37 +4644,37 @@
         <v>69</v>
       </c>
       <c r="B39" t="n">
-        <v>215.0</v>
+        <v>184.0</v>
       </c>
       <c r="C39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E39" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F39" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G39" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H39" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="I39" t="s">
-        <v>73</v>
+        <v>246</v>
       </c>
       <c r="J39" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K39" t="n">
-        <v>90.0</v>
+        <v>36.0</v>
       </c>
       <c r="L39" t="n">
-        <v>1.0</v>
+        <v>0.4</v>
       </c>
       <c r="M39" t="n">
         <v>0.0</v>
@@ -4698,10 +4716,10 @@
         <v>0.0</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="AB39" t="n">
         <v>0.0</v>
@@ -4727,37 +4745,37 @@
         <v>70</v>
       </c>
       <c r="B40" t="n">
-        <v>227.0</v>
+        <v>217.0</v>
       </c>
       <c r="C40" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E40" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F40" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G40" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H40" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I40" t="s">
-        <v>236</v>
+        <v>74</v>
       </c>
       <c r="J40" t="n">
         <v>1.0</v>
       </c>
       <c r="K40" t="n">
-        <v>174.0</v>
+        <v>90.0</v>
       </c>
       <c r="L40" t="n">
-        <v>1.9</v>
+        <v>1.0</v>
       </c>
       <c r="M40" t="n">
         <v>0.0</v>
@@ -4784,25 +4802,25 @@
         <v>0.0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="W40" t="n">
         <v>0.0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="Y40" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z40" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA40" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB40" t="n">
         <v>0.0</v>
@@ -4820,7 +4838,7 @@
         <v>0.0</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.04</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
@@ -4828,49 +4846,49 @@
         <v>71</v>
       </c>
       <c r="B41" t="n">
-        <v>240.0</v>
+        <v>229.0</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E41" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F41" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G41" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I41" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="J41" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="K41" t="n">
-        <v>706.0</v>
+        <v>174.0</v>
       </c>
       <c r="L41" t="n">
-        <v>7.8</v>
+        <v>1.9</v>
       </c>
       <c r="M41" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N41" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O41" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="P41" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q41" t="n">
         <v>0.0</v>
@@ -4885,40 +4903,40 @@
         <v>0.0</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="V41" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="W41" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="Y41" t="n">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="Z41" t="n">
-        <v>26.0</v>
+        <v>4.0</v>
       </c>
       <c r="AA41" t="n">
-        <v>41.0</v>
+        <v>9.0</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.13</v>
+        <v>0.0</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.13</v>
+        <v>0.0</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.13</v>
+        <v>0.0</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="AG41" t="n">
         <v>0.04</v>
@@ -4929,49 +4947,49 @@
         <v>72</v>
       </c>
       <c r="B42" t="n">
-        <v>365.0</v>
+        <v>242.0</v>
       </c>
       <c r="C42" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D42" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E42" t="s">
         <v>162</v>
       </c>
       <c r="F42" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G42" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="H42" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="I42" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="J42" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="K42" t="n">
-        <v>527.0</v>
+        <v>796.0</v>
       </c>
       <c r="L42" t="n">
-        <v>5.9</v>
+        <v>8.8</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N42" t="n">
         <v>1.0</v>
       </c>
       <c r="O42" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="P42" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q42" t="n">
         <v>0.0</v>
@@ -4986,40 +5004,40 @@
         <v>0.0</v>
       </c>
       <c r="U42" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V42" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="W42" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="X42" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="Y42" t="n">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z42" t="n">
-        <v>29.0</v>
+        <v>32.0</v>
       </c>
       <c r="AA42" t="n">
-        <v>21.0</v>
+        <v>49.0</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.0</v>
+        <v>0.11</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.0</v>
+        <v>0.11</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="AG42" t="n">
         <v>0.04</v>
@@ -5030,46 +5048,46 @@
         <v>73</v>
       </c>
       <c r="B43" t="n">
-        <v>1.0</v>
+        <v>370.0</v>
       </c>
       <c r="C43" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D43" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E43" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F43" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G43" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="H43" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="I43" t="s">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="K43" t="n">
-        <v>1.0</v>
+        <v>572.0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0</v>
+        <v>6.4</v>
       </c>
       <c r="M43" t="n">
         <v>0.0</v>
       </c>
       <c r="N43" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O43" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P43" t="n">
         <v>0.0</v>
@@ -5087,43 +5105,43 @@
         <v>0.0</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="V43" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="W43" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="X43" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="Z43" t="n">
-        <v>1.0</v>
+        <v>30.0</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="AB43" t="n">
         <v>0.0</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.0</v>
+        <v>0.16</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.0</v>
+        <v>0.16</v>
       </c>
       <c r="AE43" t="n">
         <v>0.0</v>
       </c>
       <c r="AF43" t="n">
-        <v>0.0</v>
+        <v>0.16</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="44">
@@ -5131,37 +5149,37 @@
         <v>74</v>
       </c>
       <c r="B44" t="n">
-        <v>114.0</v>
+        <v>1.0</v>
       </c>
       <c r="C44" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D44" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E44" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F44" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G44" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H44" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I44" t="s">
-        <v>237</v>
+        <v>74</v>
       </c>
       <c r="J44" t="n">
         <v>0.0</v>
       </c>
       <c r="K44" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="L44" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="M44" t="n">
         <v>0.0</v>
@@ -5224,7 +5242,7 @@
         <v>0.0</v>
       </c>
       <c r="AG44" t="n">
-        <v>0.36</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45">
@@ -5232,37 +5250,37 @@
         <v>75</v>
       </c>
       <c r="B45" t="n">
-        <v>123.0</v>
+        <v>114.0</v>
       </c>
       <c r="C45" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D45" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E45" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="F45" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G45" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H45" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="I45" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="J45" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="K45" t="n">
-        <v>258.0</v>
+        <v>10.0</v>
       </c>
       <c r="L45" t="n">
-        <v>2.9</v>
+        <v>0.1</v>
       </c>
       <c r="M45" t="n">
         <v>0.0</v>
@@ -5295,19 +5313,19 @@
         <v>0.0</v>
       </c>
       <c r="W45" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="X45" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="Y45" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z45" t="n">
-        <v>20.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA45" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB45" t="n">
         <v>0.0</v>
@@ -5325,7 +5343,7 @@
         <v>0.0</v>
       </c>
       <c r="AG45" t="n">
-        <v>0.0</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="46">
@@ -5333,49 +5351,49 @@
         <v>76</v>
       </c>
       <c r="B46" t="n">
-        <v>125.0</v>
+        <v>123.0</v>
       </c>
       <c r="C46" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D46" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="E46" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F46" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G46" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H46" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="I46" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J46" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="K46" t="n">
-        <v>145.0</v>
+        <v>355.0</v>
       </c>
       <c r="L46" t="n">
-        <v>1.6</v>
+        <v>3.9</v>
       </c>
       <c r="M46" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N46" t="n">
         <v>0.0</v>
       </c>
       <c r="O46" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P46" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q46" t="n">
         <v>0.0</v>
@@ -5390,43 +5408,43 @@
         <v>0.0</v>
       </c>
       <c r="U46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W46" t="n">
         <v>0.4</v>
       </c>
-      <c r="V46" t="n">
+      <c r="X46" t="n">
         <v>0.4</v>
       </c>
-      <c r="W46" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0.7</v>
-      </c>
       <c r="Y46" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z46" t="n">
-        <v>9.0</v>
+        <v>27.0</v>
       </c>
       <c r="AA46" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.62</v>
+        <v>0.0</v>
       </c>
       <c r="AC46" t="n">
         <v>0.0</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.62</v>
+        <v>0.0</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.62</v>
+        <v>0.0</v>
       </c>
       <c r="AF46" t="n">
-        <v>0.62</v>
+        <v>0.0</v>
       </c>
       <c r="AG46" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
@@ -5434,37 +5452,37 @@
         <v>77</v>
       </c>
       <c r="B47" t="n">
-        <v>131.0</v>
+        <v>125.0</v>
       </c>
       <c r="C47" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D47" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="E47" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F47" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G47" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H47" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="I47" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="J47" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="K47" t="n">
-        <v>389.0</v>
+        <v>262.0</v>
       </c>
       <c r="L47" t="n">
-        <v>4.3</v>
+        <v>2.9</v>
       </c>
       <c r="M47" t="n">
         <v>1.0</v>
@@ -5482,7 +5500,7 @@
         <v>0.0</v>
       </c>
       <c r="R47" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S47" t="n">
         <v>0.0</v>
@@ -5491,43 +5509,43 @@
         <v>0.0</v>
       </c>
       <c r="U47" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="V47" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="W47" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X47" t="n">
         <v>0.8</v>
       </c>
-      <c r="X47" t="n">
-        <v>1.4</v>
-      </c>
       <c r="Y47" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="Z47" t="n">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="AA47" t="n">
         <v>14.0</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.23</v>
+        <v>0.34</v>
       </c>
       <c r="AC47" t="n">
-        <v>0.23</v>
+        <v>0.34</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.46</v>
+        <v>0.69</v>
       </c>
       <c r="AE47" t="n">
-        <v>0.23</v>
+        <v>0.34</v>
       </c>
       <c r="AF47" t="n">
-        <v>0.46</v>
+        <v>0.69</v>
       </c>
       <c r="AG47" t="n">
-        <v>0.32</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="48">
@@ -5535,55 +5553,55 @@
         <v>78</v>
       </c>
       <c r="B48" t="n">
-        <v>144.0</v>
+        <v>132.0</v>
       </c>
       <c r="C48" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D48" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E48" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F48" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G48" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H48" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I48" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="J48" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>494.0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O48" t="n">
         <v>3.0</v>
       </c>
-      <c r="K48" t="n">
-        <v>248.0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0.0</v>
-      </c>
       <c r="P48" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q48" t="n">
         <v>0.0</v>
       </c>
       <c r="R48" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S48" t="n">
         <v>0.0</v>
@@ -5592,43 +5610,43 @@
         <v>0.0</v>
       </c>
       <c r="U48" t="n">
-        <v>0.0</v>
+        <v>1.5</v>
       </c>
       <c r="V48" t="n">
-        <v>0.0</v>
+        <v>0.7</v>
       </c>
       <c r="W48" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="X48" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="Y48" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="Z48" t="n">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="AA48" t="n">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.0</v>
+        <v>0.36</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.0</v>
+        <v>0.18</v>
       </c>
       <c r="AD48" t="n">
-        <v>0.0</v>
+        <v>0.55</v>
       </c>
       <c r="AE48" t="n">
-        <v>0.0</v>
+        <v>0.36</v>
       </c>
       <c r="AF48" t="n">
-        <v>0.0</v>
+        <v>0.55</v>
       </c>
       <c r="AG48" t="n">
-        <v>0.0</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="49">
@@ -5636,37 +5654,37 @@
         <v>79</v>
       </c>
       <c r="B49" t="n">
-        <v>159.0</v>
+        <v>145.0</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D49" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E49" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F49" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G49" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H49" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="I49" t="s">
-        <v>73</v>
+        <v>243</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="K49" t="n">
-        <v>4.0</v>
+        <v>248.0</v>
       </c>
       <c r="L49" t="n">
-        <v>0.0</v>
+        <v>2.8</v>
       </c>
       <c r="M49" t="n">
         <v>0.0</v>
@@ -5699,19 +5717,19 @@
         <v>0.0</v>
       </c>
       <c r="W49" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="X49" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="AB49" t="n">
         <v>0.0</v>
@@ -5737,37 +5755,37 @@
         <v>80</v>
       </c>
       <c r="B50" t="n">
-        <v>277.0</v>
+        <v>160.0</v>
       </c>
       <c r="C50" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D50" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="E50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F50" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G50" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H50" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I50" t="s">
-        <v>235</v>
+        <v>74</v>
       </c>
       <c r="J50" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="K50" t="n">
-        <v>630.0</v>
+        <v>4.0</v>
       </c>
       <c r="L50" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="M50" t="n">
         <v>0.0</v>
@@ -5838,37 +5856,37 @@
         <v>81</v>
       </c>
       <c r="B51" t="n">
-        <v>308.0</v>
+        <v>279.0</v>
       </c>
       <c r="C51" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D51" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="E51" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F51" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G51" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H51" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="I51" t="s">
         <v>239</v>
       </c>
       <c r="J51" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="K51" t="n">
-        <v>40.0</v>
+        <v>810.0</v>
       </c>
       <c r="L51" t="n">
-        <v>0.4</v>
+        <v>9.0</v>
       </c>
       <c r="M51" t="n">
         <v>0.0</v>
@@ -5907,13 +5925,13 @@
         <v>0.0</v>
       </c>
       <c r="Y51" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z51" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA51" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB51" t="n">
         <v>0.0</v>
@@ -5939,100 +5957,201 @@
         <v>82</v>
       </c>
       <c r="B52" t="n">
-        <v>316.0</v>
+        <v>311.0</v>
       </c>
       <c r="C52" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D52" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E52" t="s">
+        <v>168</v>
+      </c>
+      <c r="F52" t="s">
+        <v>170</v>
+      </c>
+      <c r="G52" t="s">
+        <v>220</v>
+      </c>
+      <c r="H52" t="s">
+        <v>231</v>
+      </c>
+      <c r="I52" t="s">
+        <v>243</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" t="n">
+        <v>348.0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" t="s">
+        <v>159</v>
+      </c>
+      <c r="E53" t="s">
         <v>163</v>
       </c>
-      <c r="F52" t="s">
-        <v>166</v>
-      </c>
-      <c r="G52" t="s">
-        <v>216</v>
-      </c>
-      <c r="H52" t="s">
-        <v>217</v>
-      </c>
-      <c r="I52" t="s">
-        <v>235</v>
-      </c>
-      <c r="J52" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>475.0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N52" t="n">
+      <c r="F53" t="s">
+        <v>170</v>
+      </c>
+      <c r="G53" t="s">
+        <v>221</v>
+      </c>
+      <c r="H53" t="s">
+        <v>229</v>
+      </c>
+      <c r="I53" t="s">
+        <v>74</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA53" t="n">
         <v>4.0</v>
       </c>
-      <c r="O52" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="P52" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R52" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S52" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T52" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U52" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="V52" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W52" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="X52" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>0.21</v>
+      <c r="AB53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
